--- a/tipseur_twitter_id.xlsx
+++ b/tipseur_twitter_id.xlsx
@@ -543,7 +543,7 @@
         <v>23</v>
       </c>
       <c r="F2">
-        <v>1.561420868915446e+18</v>
+        <v>1.56144214547048e+18</v>
       </c>
       <c r="G2" t="s">
         <v>30</v>

--- a/tipseur_twitter_id.xlsx
+++ b/tipseur_twitter_id.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>Tipseur</t>
   </si>
@@ -49,9 +49,6 @@
     <t>NTK_pronos</t>
   </si>
   <si>
-    <t>Bozoh pass</t>
-  </si>
-  <si>
     <t>bozohPronos</t>
   </si>
   <si>
@@ -82,28 +79,19 @@
     <t>Pronosaurus</t>
   </si>
   <si>
-    <t>@ possible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winamax from:ValueBet3 -is:retweet -is:reply </t>
+    <t xml:space="preserve">Buteurs from:ValueBet3 -is:retweet -is:reply </t>
   </si>
   <si>
     <t>prend from:ValueBet3 -is:retweet -is:reply</t>
   </si>
   <si>
-    <t>un pourcentage, @ et |</t>
-  </si>
-  <si>
-    <t>a voir …..</t>
+    <t>has:images has:hashtags -✅ from:Tyldumia -is:reply -is:retweet</t>
   </si>
   <si>
     <t>Confiance from:ntkpronos -is:retweet -is:reply</t>
   </si>
   <si>
-    <t>"Book ou match" from:BozohPassFree</t>
-  </si>
-  <si>
-    <t>mise ou match from BozohPronos  -is:retweet -is:reply</t>
+    <t>"si tu suis" from:BozohPronos -is:reply -is:retweet</t>
   </si>
   <si>
     <t>buteur</t>
@@ -119,9 +107,6 @@
   </si>
   <si>
     <t>Football mais bcp de screen avec des tips solo</t>
-  </si>
-  <si>
-    <t>Pass payant foot</t>
   </si>
   <si>
     <t xml:space="preserve">Football et montante </t>
@@ -540,13 +525,13 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2">
-        <v>1.56144214547048e+18</v>
+        <v>1.561437435409613e+18</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -557,13 +542,13 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>1.56141924663024e+18</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -574,13 +559,13 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1.561428521993503e+18</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -590,14 +575,11 @@
       <c r="D5">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -608,33 +590,30 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F6">
-        <v>1.561413432972288e+18</v>
+        <v>1.561428580210512e+18</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1.561301884983542e+18</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -644,14 +623,11 @@
       <c r="D8">
         <v>7</v>
       </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -665,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -679,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -693,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -707,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -721,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -735,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -749,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -759,17 +735,8 @@
       <c r="D16">
         <v>15</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
+    </row>
+    <row r="17" spans="4:4">
       <c r="D17">
         <v>16</v>
       </c>

--- a/tipseur_twitter_id.xlsx
+++ b/tipseur_twitter_id.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dorian\code\tipseur_git\Tipseur_tweets_colect\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9057D869-F9DA-4B99-8452-4237F056B4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="2304" yWindow="624" windowWidth="17004" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>Tipseur</t>
   </si>
@@ -82,7 +88,7 @@
     <t xml:space="preserve">Buteurs from:ValueBet3 -is:retweet -is:reply </t>
   </si>
   <si>
-    <t>prend from:ValueBet3 -is:retweet -is:reply</t>
+    <t>(prend OR pris) from:ValueBet3 -is:retweet -is:reply</t>
   </si>
   <si>
     <t>has:images has:hashtags -✅ from:Tyldumia -is:reply -is:retweet</t>
@@ -94,6 +100,24 @@
     <t>"si tu suis" from:BozohPronos -is:reply -is:retweet</t>
   </si>
   <si>
+    <t>1561785364573978624</t>
+  </si>
+  <si>
+    <t>1561787015976419328</t>
+  </si>
+  <si>
+    <t>1561821496703598592</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1561778148924014592</t>
+  </si>
+  <si>
+    <t>1561301884983541762</t>
+  </si>
+  <si>
     <t>buteur</t>
   </si>
   <si>
@@ -131,13 +155,16 @@
   </si>
   <si>
     <t xml:space="preserve">Montante </t>
+  </si>
+  <si>
+    <t>ReyBet_10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,11 +227,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -246,7 +281,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -278,9 +313,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -312,6 +365,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -487,14 +558,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +590,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -527,14 +600,14 @@
       <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="F2">
-        <v>1.561437435409613e+18</v>
+      <c r="F2" t="s">
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -544,14 +617,14 @@
       <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="F3">
-        <v>1.56141924663024e+18</v>
+      <c r="F3" t="s">
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -561,28 +634,28 @@
       <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="F4">
-        <v>1.561428521993503e+18</v>
+      <c r="F4" t="s">
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
-      <c r="F5">
-        <v>0</v>
+      <c r="F5" t="s">
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -592,14 +665,14 @@
       <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="F6">
-        <v>1.561428580210512e+18</v>
+      <c r="F6" t="s">
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -609,136 +682,145 @@
       <c r="E7" t="s">
         <v>25</v>
       </c>
-      <c r="F7">
-        <v>1.561301884983542e+18</v>
+      <c r="F7" t="s">
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
-      <c r="F8">
-        <v>0</v>
+      <c r="F8" t="s">
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
-      <c r="F9">
-        <v>0</v>
+      <c r="F9" t="s">
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="D10">
         <v>9</v>
       </c>
-      <c r="F10">
-        <v>0</v>
+      <c r="F10" t="s">
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
-      <c r="F11">
-        <v>0</v>
+      <c r="F11" t="s">
+        <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
       <c r="D12">
         <v>11</v>
       </c>
-      <c r="F12">
-        <v>0</v>
+      <c r="F12" t="s">
+        <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
       <c r="D13">
         <v>12</v>
       </c>
-      <c r="F13">
-        <v>0</v>
+      <c r="F13" t="s">
+        <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="D14">
         <v>13</v>
       </c>
-      <c r="F14">
-        <v>0</v>
+      <c r="F14" t="s">
+        <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="D15">
         <v>14</v>
       </c>
-      <c r="F15">
-        <v>0</v>
+      <c r="F15" t="s">
+        <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
       <c r="D16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="4:4">
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
       <c r="D17">
         <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/tipseur_twitter_id.xlsx
+++ b/tipseur_twitter_id.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dorian\code\tipseur_git\Tipseur_tweets_colect\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9057D869-F9DA-4B99-8452-4237F056B4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="624" windowWidth="17004" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
   <si>
     <t>Tipseur</t>
   </si>
@@ -43,6 +37,12 @@
     <t>spécialité twitter</t>
   </si>
   <si>
+    <t>A un suivi dispo</t>
+  </si>
+  <si>
+    <t>Unnamed: 8</t>
+  </si>
+  <si>
     <t>ValueBet3</t>
   </si>
   <si>
@@ -70,6 +70,9 @@
     <t>BenjolATPronos</t>
   </si>
   <si>
+    <t>Prout</t>
+  </si>
+  <si>
     <t>Prono_Overdozz</t>
   </si>
   <si>
@@ -85,13 +88,19 @@
     <t>Pronosaurus</t>
   </si>
   <si>
+    <t>BetRey_10</t>
+  </si>
+  <si>
     <t xml:space="preserve">Buteurs from:ValueBet3 -is:retweet -is:reply </t>
   </si>
   <si>
     <t>(prend OR pris) from:ValueBet3 -is:retweet -is:reply</t>
   </si>
   <si>
-    <t>has:images has:hashtags -✅ from:Tyldumia -is:reply -is:retweet</t>
+    <t>has:links has:hashtags -✅ from:Tyldumia -is:reply -is:retweet</t>
+  </si>
+  <si>
+    <t>gzydgyzgfyzgeyufgzefgyreuf</t>
   </si>
   <si>
     <t>Confiance from:ntkpronos -is:retweet -is:reply</t>
@@ -100,22 +109,52 @@
     <t>"si tu suis" from:BozohPronos -is:reply -is:retweet</t>
   </si>
   <si>
-    <t>1561785364573978624</t>
-  </si>
-  <si>
-    <t>1561787015976419328</t>
-  </si>
-  <si>
-    <t>1561821496703598592</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1561778148924014592</t>
-  </si>
-  <si>
-    <t>1561301884983541762</t>
+    <t>beaucoup d'iimage sur les menu donc juste pour la notif</t>
+  </si>
+  <si>
+    <t>bet from:betofsport -is:reply -is:retweet</t>
+  </si>
+  <si>
+    <t>"RT &amp; FAV si tu suis" from:drxtennis -is:reply -is:retweet</t>
+  </si>
+  <si>
+    <t>"RT + ❤️ pour la force !"  -✅ from:BenjolATPronos -is:reply -is:retweet</t>
+  </si>
+  <si>
+    <t>has:media Pénis -is:retweet</t>
+  </si>
+  <si>
+    <t>1563957164506595333</t>
+  </si>
+  <si>
+    <t>1563955450785169409</t>
+  </si>
+  <si>
+    <t>1563091906552557569</t>
+  </si>
+  <si>
+    <t>1563617739671207936</t>
+  </si>
+  <si>
+    <t>1563952763196919811</t>
+  </si>
+  <si>
+    <t>1563895767282196480</t>
+  </si>
+  <si>
+    <t>1563426006303535104</t>
+  </si>
+  <si>
+    <t>1563865292379496449</t>
+  </si>
+  <si>
+    <t>1562916438515585024</t>
+  </si>
+  <si>
+    <t>1563027210344497153</t>
+  </si>
+  <si>
+    <t>1564019363803500550</t>
   </si>
   <si>
     <t>buteur</t>
@@ -157,14 +196,20 @@
     <t xml:space="preserve">Montante </t>
   </si>
   <si>
-    <t>ReyBet_10</t>
+    <t>oui</t>
+  </si>
+  <si>
+    <t>https://app.bet-analytix.com/bankroll/766977</t>
+  </si>
+  <si>
+    <t>https://app.bet-analytix.com/bankroll/311941</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +224,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -213,33 +265,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -281,7 +331,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -313,27 +363,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -365,24 +397,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -558,16 +572,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,241 +601,298 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="H9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10">
         <v>9</v>
       </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="H10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D12">
         <v>11</v>
       </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
       <c r="F12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14">
         <v>12</v>
       </c>
-      <c r="F13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="F14" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14">
+      <c r="G14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15">
         <v>13</v>
       </c>
-      <c r="F14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15">
+      <c r="F15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16">
         <v>14</v>
       </c>
-      <c r="F15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16">
+      <c r="F16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17">
         <v>15</v>
       </c>
-      <c r="F16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17">
+      <c r="F17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18">
         <v>16</v>
       </c>
-      <c r="F17" t="s">
-        <v>29</v>
+      <c r="F18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I9" r:id="rId1"/>
+    <hyperlink ref="I10" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>